--- a/manuscriptIII(Thy1-ChR2).xlsx
+++ b/manuscriptIII(Thy1-ChR2).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\micha\Documents\ChangValiante2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DDD83AA-B46C-41A6-8369-2BC2AD49F761}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9AAB22-D128-44B6-ACEB-826EF1CFF2C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="4680" windowWidth="21120" windowHeight="15435" tabRatio="756" firstSheet="2" activeTab="3" xr2:uid="{0E9C971E-0FDB-410E-962B-9507015DC5DB}"/>
+    <workbookView minimized="1" xWindow="58200" yWindow="1875" windowWidth="21600" windowHeight="15435" tabRatio="756" firstSheet="2" activeTab="2" xr2:uid="{0E9C971E-0FDB-410E-962B-9507015DC5DB}"/>
   </bookViews>
   <sheets>
     <sheet name="19n07003" sheetId="16" r:id="rId1"/>
@@ -24,6 +24,7 @@
     <sheet name="19n10000)(HEPEE-VU, 10 min)" sheetId="26" r:id="rId9"/>
     <sheet name="19n10000(HEPES-VU, 30 min)" sheetId="19" r:id="rId10"/>
     <sheet name="19n10003(10 min, collective)" sheetId="27" r:id="rId11"/>
+    <sheet name="19n08002" sheetId="28" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="738" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="46">
   <si>
     <t>Treatment Group</t>
   </si>
@@ -176,6 +177,9 @@
   </si>
   <si>
     <t>VU0240551</t>
+  </si>
+  <si>
+    <t>HEPES-BUM [50 uM]</t>
   </si>
 </sst>
 </file>
@@ -534,6 +538,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="25.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -1195,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66EB1551-46F7-44A3-8594-D05FD33E1311}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
@@ -2379,6 +2386,550 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87DF6DEF-EE44-4934-8E98-A7D637E58640}">
+  <dimension ref="A1:L38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A38" sqref="A38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2">
+        <v>50.401454999999999</v>
+      </c>
+      <c r="C2">
+        <v>8.2553006249999328</v>
+      </c>
+      <c r="D2">
+        <v>2.3638972707469147E-2</v>
+      </c>
+      <c r="E2">
+        <v>471062.37257474771</v>
+      </c>
+      <c r="F2">
+        <v>113842.35561734356</v>
+      </c>
+      <c r="G2">
+        <v>0.23122112269351183</v>
+      </c>
+      <c r="H2">
+        <v>5.8515203351441336E-3</v>
+      </c>
+      <c r="I2">
+        <v>19.4052734375</v>
+      </c>
+      <c r="J2">
+        <v>5.94677734375</v>
+      </c>
+      <c r="K2">
+        <v>0.27961498522691286</v>
+      </c>
+      <c r="L2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3">
+        <v>103.31616749999966</v>
+      </c>
+      <c r="C3">
+        <v>22.86597000000063</v>
+      </c>
+      <c r="E3">
+        <v>342605.36887949758</v>
+      </c>
+      <c r="F3">
+        <v>26202.468604397553</v>
+      </c>
+      <c r="H3">
+        <v>0.1062042910812464</v>
+      </c>
+      <c r="I3">
+        <v>20.03125</v>
+      </c>
+      <c r="J3">
+        <v>2.347412109375</v>
+      </c>
+      <c r="L3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="L4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" t="s">
+        <v>16</v>
+      </c>
+      <c r="I5" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" t="s">
+        <v>15</v>
+      </c>
+      <c r="K5" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6">
+        <v>8.9223290420734659E-3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>-1</v>
+      </c>
+      <c r="E6">
+        <v>8.9223290420734659E-3</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>0.70286414860256474</v>
+      </c>
+      <c r="J6">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="K6">
+        <v>-0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9" t="s">
+        <v>22</v>
+      </c>
+      <c r="F9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10">
+        <v>6782.9494077723975</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>3391.4747038861988</v>
+      </c>
+      <c r="E10">
+        <v>15.597744989664253</v>
+      </c>
+      <c r="F10">
+        <v>1.1893052083291336E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11">
+        <v>1956.9028955917565</v>
+      </c>
+      <c r="C11">
+        <v>9</v>
+      </c>
+      <c r="D11">
+        <v>217.43365506575071</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12">
+        <v>8739.8523033641541</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+      <c r="C16">
+        <v>-84.213422677026671</v>
+      </c>
+      <c r="D16">
+        <v>-55.803502023809344</v>
+      </c>
+      <c r="E16">
+        <v>-27.39358137059202</v>
+      </c>
+      <c r="F16">
+        <v>1.0112021817192396E-3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+      <c r="B17">
+        <v>3</v>
+      </c>
+      <c r="C17">
+        <v>-61.837197724238401</v>
+      </c>
+      <c r="D17">
+        <v>-28.827852857142958</v>
+      </c>
+      <c r="E17">
+        <v>4.1814920099524855</v>
+      </c>
+      <c r="F17">
+        <v>8.6592389242132528E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>-10.607143241078973</v>
+      </c>
+      <c r="D18">
+        <v>26.975649166666386</v>
+      </c>
+      <c r="E18">
+        <v>64.558441574411745</v>
+      </c>
+      <c r="F18">
+        <v>0.16682896144061876</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21" t="s">
+        <v>20</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21" t="s">
+        <v>22</v>
+      </c>
+      <c r="F21" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B22">
+        <v>80640091059.255386</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>40320045529.627693</v>
+      </c>
+      <c r="E22">
+        <v>10.086793833737971</v>
+      </c>
+      <c r="F22">
+        <v>5.0307995159993577E-3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>35975793274.6577</v>
+      </c>
+      <c r="C23">
+        <v>9</v>
+      </c>
+      <c r="D23">
+        <v>3997310363.8508554</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24">
+        <v>116615884333.91309</v>
+      </c>
+      <c r="C24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>37720.954870184098</v>
+      </c>
+      <c r="D28">
+        <v>159533.0946976227</v>
+      </c>
+      <c r="E28">
+        <v>281345.23452506133</v>
+      </c>
+      <c r="F28">
+        <v>1.3144913662010538E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>3</v>
+      </c>
+      <c r="C29">
+        <v>34061.252142628422</v>
+      </c>
+      <c r="D29">
+        <v>175594.1688178961</v>
+      </c>
+      <c r="E29">
+        <v>317127.08549316379</v>
+      </c>
+      <c r="F29">
+        <v>1.7630661349074095E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+      <c r="B30">
+        <v>3</v>
+      </c>
+      <c r="C30">
+        <v>-145081.24020574105</v>
+      </c>
+      <c r="D30">
+        <v>16061.074120273406</v>
+      </c>
+      <c r="E30">
+        <v>177203.38844628786</v>
+      </c>
+      <c r="F30">
+        <v>0.95840484012308402</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>18</v>
+      </c>
+      <c r="B33" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <v>9.2037315936315629</v>
+      </c>
+      <c r="C34">
+        <v>2</v>
+      </c>
+      <c r="D34">
+        <v>4.6018657968157815</v>
+      </c>
+      <c r="E34">
+        <v>0.48168945312499994</v>
+      </c>
+      <c r="F34">
+        <v>0.6327925855127996</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35">
+        <v>85.982352120535722</v>
+      </c>
+      <c r="C35">
+        <v>9</v>
+      </c>
+      <c r="D35">
+        <v>9.5535946800595255</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>26</v>
+      </c>
+      <c r="B36">
+        <v>95.186083714167282</v>
+      </c>
+      <c r="C36">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E7AA019-A161-4716-9F4E-72313365906C}">
   <dimension ref="A1:L42"/>
@@ -3022,8 +3573,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4602F6B-4E36-4BAA-A0B2-E159AADC1233}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3688,7 +4239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D256356-F62D-41C2-A92E-1231D0415C33}">
   <dimension ref="A1:L42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
